--- a/testdata/test_data_too_short.xlsx
+++ b/testdata/test_data_too_short.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tester\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tester\files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016CB39-8781-4D71-9F29-35E2430D487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC65395-2343-4820-A13B-499F3C25267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{810EF329-2E98-46D3-A3BA-C833C9EC7544}"/>
   </bookViews>
@@ -153,12 +153,6 @@
     <t>80072769812</t>
   </si>
   <si>
-    <t>plac Podgorna 949</t>
-  </si>
-  <si>
-    <t>Dąbrowa Gornicza</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>tc</t>
+  </si>
+  <si>
+    <t>plac Podgórna 949</t>
+  </si>
+  <si>
+    <t>Dąbrowa Górnicza</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -597,19 +597,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -635,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -682,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -711,7 +711,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -764,7 +764,7 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
         <v>39</v>
